--- a/AAII_Financials/Yearly/ABBV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ABBV_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>ABBV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,157 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33266000</v>
+      </c>
+      <c r="E8" s="3">
         <v>32753000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>28216000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>25638000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22859000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19960000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18790000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18380000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17444000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7606000</v>
+      </c>
+      <c r="E9" s="3">
         <v>7557000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7158000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5814000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4500000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4426000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4581000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4508000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4597400</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>25660000</v>
+      </c>
+      <c r="E10" s="3">
         <v>25196000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>21058000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19824000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18359000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>15534000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14209000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>13872000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12846600</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,38 +828,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5407000</v>
+      </c>
+      <c r="E12" s="3">
         <v>5229000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4982000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4366000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4101000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3297000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2840000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5178000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2502500</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,39 +891,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>505000</v>
+      </c>
+      <c r="E14" s="3">
         <v>5524000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>327000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>239000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>334000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>352000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>353000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>492000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>878500</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -933,9 +957,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,68 +972,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>20283000</v>
+      </c>
+      <c r="E17" s="3">
         <v>26370000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18624000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16254000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15322000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16549000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13126000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12563000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13823200</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>12983000</v>
+      </c>
+      <c r="E18" s="3">
         <v>6383000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9592000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9384000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7537000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3411000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5664000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5817000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3620700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1019,158 +1053,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-2773000</v>
+      </c>
+      <c r="E20" s="3">
         <v>162000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-715000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-453000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-173000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-613000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-33000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>12000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>47800</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>12227000</v>
+      </c>
+      <c r="E21" s="3">
         <v>8310000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10378000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10120000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8200000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3584000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6528000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6979000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4940700</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>1784000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1348000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1150000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1047000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>719000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>429000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>299000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>104000</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8426000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5197000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7727000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7884000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6645000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2369000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5332000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5725000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3668500</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>544000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-576000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2018000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1931000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1501000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>595000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1204000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>450000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>235400</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,69 +1248,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7882000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5773000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5709000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5953000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5144000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1774000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4128000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5275000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3433100</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7842000</v>
+      </c>
+      <c r="E27" s="3">
         <v>5743000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5683000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5923000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5144000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1774000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4128000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5275000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3433100</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,20 +1347,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="3">
         <v>-86000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-400000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>17</v>
@@ -1318,9 +1380,12 @@
       <c r="K29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1413,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,69 +1446,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2773000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-162000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>715000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>453000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>173000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>613000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>33000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-12000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-47800</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7842000</v>
+      </c>
+      <c r="E33" s="3">
         <v>5657000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5283000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5923000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5144000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1774000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4128000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5275000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3433100</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1545,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7842000</v>
+      </c>
+      <c r="E35" s="3">
         <v>5657000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5283000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5923000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5144000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1774000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4128000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5275000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3433100</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1634,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,278 +1649,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>39924000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7289000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9303000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5100000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8399000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8348000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9595000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5901000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>772000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>486000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1323000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>26000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>300000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2075000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>626000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5428000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5384000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5088000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4758000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4730000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8026000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8657000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8596000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7795300</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1605000</v>
+        <v>1813000</v>
       </c>
       <c r="E44" s="3">
         <v>1605000</v>
       </c>
       <c r="F44" s="3">
+        <v>1605000</v>
+      </c>
+      <c r="G44" s="3">
         <v>1444000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1719000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1124000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1150000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1091000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>872000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2354000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1895000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4741000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3562000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1458000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2848000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2000000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1989000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2012000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>49519000</v>
+      </c>
+      <c r="E46" s="3">
         <v>16945000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21223000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16187000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16314000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16081000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17848000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15354000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7354000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1420000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2090000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1783000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>145000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>92000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>118000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>119000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>229000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3306000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2883000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2803000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2604000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2565000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9590000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9207000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8789000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2144000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>34253000</v>
+      </c>
+      <c r="E49" s="3">
         <v>36896000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>43344000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>44313000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>32877000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7375000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>8167000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8873000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9010200</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1976,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,39 +2009,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1944000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1208000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1326000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1212000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1149000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1480000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>767000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>835000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1703700</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2075,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>89115000</v>
+      </c>
+      <c r="E54" s="3">
         <v>59352000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>70786000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>66099000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>53050000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27513000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>29198000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27008000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19521000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2126,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,188 +2141,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4580000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5572000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5102000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4782000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4531000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9129000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8241000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9329000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3909000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3753000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5308000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6415000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>402000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2431000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4439000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>431000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1042000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>16000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7252000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6359000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5124000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4597000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3932000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2861000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2225000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2139000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5479900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15585000</v>
+      </c>
+      <c r="E60" s="3">
         <v>17239000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16641000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9781000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10894000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11393000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6879000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6776000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5897000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>62975000</v>
+      </c>
+      <c r="E61" s="3">
         <v>35002000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>30953000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>36440000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>29240000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10538000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14292000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14630000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18727000</v>
+      </c>
+      <c r="E62" s="3">
         <v>15557000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18095000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15242000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8971000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6870000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7070000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2239000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1660500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2369,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2402,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2435,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>97287000</v>
+      </c>
+      <c r="E66" s="3">
         <v>67798000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>65689000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>61463000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>49105000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25771000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>24706000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23645000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7589000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2486,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2516,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2549,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2582,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2615,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4717000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3368000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5459000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4378000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2248000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>535000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1567000</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2681,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2714,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2747,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8172000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8446000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5097000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4636000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3945000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1742000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4492000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3363000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11932000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2813,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7842000</v>
+      </c>
+      <c r="E81" s="3">
         <v>5657000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5283000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5923000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5144000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1774000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4128000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5275000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3433100</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,38 +2902,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2017000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1765000</v>
+      </c>
+      <c r="F83" s="3">
         <v>1501000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1189000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>836000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>786000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>897000</v>
       </c>
-      <c r="I83" s="3">
-        <v>1150000</v>
-      </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1272200</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2965,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2998,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3031,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3064,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,39 +3097,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13324000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>13427000</v>
+      </c>
+      <c r="F89" s="3">
         <v>9960000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>7041000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>7535000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3549000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>6267000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>6345000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>6247000</v>
       </c>
       <c r="K89" s="3">
         <v>6247000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>6247000</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,38 +3148,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-552000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-638000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-529000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-479000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-532000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-612000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-491000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-333000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-355500</v>
       </c>
       <c r="K91" s="3">
         <v>-355500</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>-355500</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3211,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,39 +3244,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>596000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1006000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-274000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-6074000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-12936000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-926000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>879000</v>
       </c>
-      <c r="I94" s="3">
-        <v>-2418000</v>
-      </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>553900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,38 +3295,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-6366000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-5580000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-4107000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-3717000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-3294000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-2661000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-2555000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3358,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3391,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,97 +3424,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>18708000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-14396000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-5512000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-3928000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>5752000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-3293000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-3442000</v>
       </c>
-      <c r="I100" s="3">
-        <v>1931000</v>
-      </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6783000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="F101" s="3">
         <v>29000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-338000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-300000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-577000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-10000</v>
       </c>
-      <c r="I101" s="3">
-        <v>16000</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>32635000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2014000</v>
+      </c>
+      <c r="F102" s="3">
         <v>4203000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3299000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>51000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1247000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>3694000</v>
-      </c>
-      <c r="I102" s="3">
-        <v>5874000</v>
-      </c>
-      <c r="J102" s="3">
-        <v>17800</v>
       </c>
       <c r="K102" s="3">
         <v>17800</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3">
+        <v>17800</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ABBV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ABBV_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>ABBV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,170 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>45804000</v>
+      </c>
+      <c r="E8" s="3">
         <v>33266000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>32753000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>28216000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>25638000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22859000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19960000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18790000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18380000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17444000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15257000</v>
+      </c>
+      <c r="E9" s="3">
         <v>7606000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7557000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7158000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5814000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4500000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4426000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4581000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4508000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4597400</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>30547000</v>
+      </c>
+      <c r="E10" s="3">
         <v>25660000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25196000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>21058000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19824000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>18359000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>15534000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14209000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13872000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12846600</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,41 +842,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6181000</v>
+      </c>
+      <c r="E12" s="3">
         <v>5407000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5229000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4982000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4366000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4101000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3297000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2840000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5178000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2502500</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -894,42 +911,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1704000</v>
+      </c>
+      <c r="E14" s="3">
         <v>505000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5524000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>327000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>239000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>334000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>352000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>353000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>492000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>878500</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -960,9 +983,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -973,74 +999,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>34441000</v>
+      </c>
+      <c r="E17" s="3">
         <v>20283000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26370000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18624000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16254000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15322000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16549000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13126000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12563000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13823200</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>11363000</v>
+      </c>
+      <c r="E18" s="3">
         <v>12983000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6383000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9592000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9384000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7537000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3411000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5664000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5817000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3620700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1054,173 +1087,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-5511000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2773000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>162000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-715000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-453000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-173000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-613000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-33000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>47800</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>12323000</v>
+      </c>
+      <c r="E21" s="3">
         <v>12227000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8310000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10378000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10120000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8200000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3584000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6528000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6979000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4940700</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>2454000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1784000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1348000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1150000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1047000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>719000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>429000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>299000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>104000</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3398000</v>
+      </c>
+      <c r="E23" s="3">
         <v>8426000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5197000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7727000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7884000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6645000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2369000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5332000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5725000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3668500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1224000</v>
+      </c>
+      <c r="E24" s="3">
         <v>544000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-576000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2018000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1931000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1501000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>595000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1204000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>450000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>235400</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1251,75 +1300,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4622000</v>
+      </c>
+      <c r="E26" s="3">
         <v>7882000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5773000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5709000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5953000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5144000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1774000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4128000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5275000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3433100</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4556000</v>
+      </c>
+      <c r="E27" s="3">
         <v>7842000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5743000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5683000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5923000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5144000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1774000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4128000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5275000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3433100</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1350,23 +1408,26 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="3">
         <v>-86000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-400000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>17</v>
@@ -1383,9 +1444,12 @@
       <c r="L29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1416,9 +1480,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1449,75 +1516,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5511000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2773000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-162000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>715000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>453000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>173000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>613000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>33000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-47800</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4556000</v>
+      </c>
+      <c r="E33" s="3">
         <v>7842000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5657000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5283000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5923000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5144000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1774000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4128000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5275000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3433100</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1548,80 +1624,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4556000</v>
+      </c>
+      <c r="E35" s="3">
         <v>7842000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5657000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5283000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5923000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5144000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1774000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4128000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5275000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3433100</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1635,8 +1720,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1650,305 +1736,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8449000</v>
+      </c>
+      <c r="E41" s="3">
         <v>39924000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7289000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9303000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5100000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8399000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8348000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9595000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5901000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>772000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>486000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1323000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>26000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>300000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2075000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>626000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8822000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5428000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5384000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5088000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4758000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4730000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8026000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8657000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8596000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7795300</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3310000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1813000</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1605000</v>
       </c>
       <c r="F44" s="3">
         <v>1605000</v>
       </c>
       <c r="G44" s="3">
+        <v>1605000</v>
+      </c>
+      <c r="H44" s="3">
         <v>1444000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1719000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1124000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1150000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1091000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>872000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3562000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2354000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1895000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4741000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3562000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1458000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2848000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2000000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1989000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2012000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24173000</v>
+      </c>
+      <c r="E46" s="3">
         <v>49519000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16945000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21223000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16187000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16314000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16081000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17848000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15354000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7354000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>293000</v>
+      </c>
+      <c r="E47" s="3">
         <v>93000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1420000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2090000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1783000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>145000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>92000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>118000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>119000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>229000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6143000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3306000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2883000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2803000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2604000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2565000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9590000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9207000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8789000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2144000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>116000000</v>
+      </c>
+      <c r="E49" s="3">
         <v>34253000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>36896000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>43344000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>44313000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>32877000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7375000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8167000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8873000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9010200</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1979,9 +2093,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2012,42 +2129,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3956000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1944000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1208000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1326000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1212000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1149000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1480000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>767000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>835000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1703700</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2078,42 +2201,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>150565000</v>
+      </c>
+      <c r="E54" s="3">
         <v>89115000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>59352000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>70786000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>66099000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>53050000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27513000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>29198000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27008000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19521000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2127,8 +2256,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2142,206 +2272,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8792000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4580000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5572000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5102000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4782000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4531000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9129000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8241000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9329000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3909000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8502000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3753000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5308000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6415000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>402000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2431000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4439000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>431000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1042000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>16000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11367000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7252000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6359000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5124000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4597000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3932000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2861000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2225000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2139000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5479900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28661000</v>
+      </c>
+      <c r="E60" s="3">
         <v>15585000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17239000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16641000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9781000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10894000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11393000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6879000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6776000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5897000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>77554000</v>
+      </c>
+      <c r="E61" s="3">
         <v>62975000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>35002000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>30953000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>36440000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>29240000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10538000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14292000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14630000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>31253000</v>
+      </c>
+      <c r="E62" s="3">
         <v>18727000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15557000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18095000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15242000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8971000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6870000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7070000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2239000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1660500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2372,9 +2521,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2405,9 +2557,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2438,42 +2593,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>137489000</v>
+      </c>
+      <c r="E66" s="3">
         <v>97287000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>67798000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>65689000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>61463000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>49105000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25771000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>24706000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23645000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7589000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2487,8 +2648,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2519,9 +2681,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2552,9 +2717,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2585,9 +2753,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2618,42 +2789,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1055000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4717000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3368000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5459000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4378000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2248000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>535000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1567000</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2684,9 +2861,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2717,9 +2897,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2750,42 +2933,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13076000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8172000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-8446000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5097000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4636000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3945000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1742000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4492000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3363000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11932000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2816,80 +3005,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4556000</v>
+      </c>
+      <c r="E81" s="3">
         <v>7842000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5657000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5283000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5923000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5144000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1774000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4128000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5275000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3433100</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2903,41 +3101,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6471000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2017000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1765000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1501000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1189000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>836000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>786000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>897000</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1272200</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2968,9 +3170,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3001,9 +3206,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3034,9 +3242,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3067,9 +3278,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3100,42 +3314,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17588000</v>
+      </c>
+      <c r="E89" s="3">
         <v>13324000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13427000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9960000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7041000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7535000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3549000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6267000</v>
-      </c>
-      <c r="K89" s="3">
-        <v>6247000</v>
       </c>
       <c r="L89" s="3">
         <v>6247000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>6247000</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3149,41 +3369,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-798000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-552000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-638000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-529000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-479000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-532000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-612000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-491000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-355500</v>
       </c>
       <c r="L91" s="3">
         <v>-355500</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>-355500</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3214,9 +3438,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3247,42 +3474,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-37557000</v>
+      </c>
+      <c r="E94" s="3">
         <v>596000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1006000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-274000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6074000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12936000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-926000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>879000</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>553900</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3296,41 +3529,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-7716000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-6366000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-5580000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-4107000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3717000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3294000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2661000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2555000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3361,9 +3598,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3394,9 +3634,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3427,106 +3670,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11501000</v>
+      </c>
+      <c r="E100" s="3">
         <v>18708000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14396000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5512000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3928000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5752000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3293000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3442000</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6783000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-39000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>29000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-338000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-577000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-10000</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-31475000</v>
+      </c>
+      <c r="E102" s="3">
         <v>32635000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2014000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4203000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3299000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>51000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1247000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3694000</v>
-      </c>
-      <c r="K102" s="3">
-        <v>17800</v>
       </c>
       <c r="L102" s="3">
         <v>17800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3">
+        <v>17800</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ABBV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ABBV_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>ABBV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,182 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>56197000</v>
+      </c>
+      <c r="E8" s="3">
         <v>45804000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>33266000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>32753000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>28216000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>25638000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22859000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19960000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18790000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18380000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17444000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>17314000</v>
+      </c>
+      <c r="E9" s="3">
         <v>15257000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7606000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7557000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7158000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5814000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4500000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4426000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4581000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4508000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4597400</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>38883000</v>
+      </c>
+      <c r="E10" s="3">
         <v>30547000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25660000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25196000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>21058000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19824000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>18359000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>15534000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14209000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13872000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12846600</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -843,44 +855,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6982000</v>
+      </c>
+      <c r="E12" s="3">
         <v>6181000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5407000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5229000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4982000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4366000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4101000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3297000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2840000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5178000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2502500</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -914,45 +930,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1549000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1704000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>505000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5524000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>327000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>239000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>334000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>352000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>353000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>492000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>878500</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -986,9 +1008,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1000,80 +1025,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>38273000</v>
+      </c>
+      <c r="E17" s="3">
         <v>34441000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20283000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26370000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18624000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16254000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15322000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16549000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13126000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12563000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13823200</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>17924000</v>
+      </c>
+      <c r="E18" s="3">
         <v>11363000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12983000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6383000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9592000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9384000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7537000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3411000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5664000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5817000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3620700</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1088,188 +1120,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-2512000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5511000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2773000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>162000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-715000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-453000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-173000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-613000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-33000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>47800</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>23933000</v>
+      </c>
+      <c r="E21" s="3">
         <v>12323000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12227000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8310000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10378000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10120000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8200000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3584000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6528000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6979000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4940700</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>2423000</v>
+      </c>
+      <c r="E22" s="3">
         <v>2454000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1784000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1348000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1150000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1047000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>719000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>429000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>299000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>104000</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12989000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3398000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8426000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5197000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7727000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7884000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6645000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2369000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5332000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5725000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3668500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1440000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1224000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>544000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-576000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2018000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1931000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1501000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>595000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1204000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>450000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>235400</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1303,81 +1351,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11549000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4622000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7882000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5773000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5709000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5953000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5144000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1774000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4128000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5275000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3433100</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11468000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4556000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7842000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5743000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5683000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5923000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5144000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1774000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4128000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5275000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3433100</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1411,9 +1468,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,14 +1483,14 @@
       <c r="E29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="3">
         <v>-86000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-400000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>17</v>
@@ -1447,9 +1507,12 @@
       <c r="M29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1483,9 +1546,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1519,81 +1585,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2512000</v>
+      </c>
+      <c r="E32" s="3">
         <v>5511000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2773000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-162000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>715000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>453000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>173000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>613000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>33000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-47800</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11468000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4556000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7842000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5657000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5283000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5923000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5144000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1774000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4128000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5275000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3433100</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1627,86 +1702,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11468000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4556000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7842000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5657000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5283000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5923000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5144000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1774000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4128000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5275000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3433100</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1721,8 +1805,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1737,332 +1822,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9746000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8449000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>39924000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7289000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9303000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5100000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8399000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8348000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9595000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5901000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>27000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E42" s="3">
         <v>30000</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>772000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>486000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1323000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>8000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>26000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>300000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2075000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>626000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9977000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8822000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5428000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5384000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5088000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4758000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4730000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8026000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8657000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8596000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7795300</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3128000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3310000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1813000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1605000</v>
       </c>
       <c r="G44" s="3">
         <v>1605000</v>
       </c>
       <c r="H44" s="3">
+        <v>1605000</v>
+      </c>
+      <c r="I44" s="3">
         <v>1444000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1719000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1124000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1150000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1091000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>872000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4993000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3562000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2354000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1895000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4741000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3562000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1458000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2848000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2000000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1989000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2012000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27928000</v>
+      </c>
+      <c r="E46" s="3">
         <v>24173000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>49519000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16945000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21223000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16187000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16314000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16081000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17848000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15354000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7354000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E47" s="3">
         <v>293000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>93000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1420000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2090000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1783000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>145000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>92000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>118000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>119000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>229000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5872000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6143000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3306000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2883000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2803000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2604000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2565000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9590000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9207000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8789000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2144000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>108330000</v>
+      </c>
+      <c r="E49" s="3">
         <v>116000000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>34253000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>36896000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>43344000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>44313000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>32877000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7375000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8167000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8873000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9010200</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2096,9 +2209,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2132,45 +2248,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4122000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3956000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1944000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1208000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1326000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1212000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1149000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1480000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>767000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>835000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1703700</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2204,45 +2326,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>146529000</v>
+      </c>
+      <c r="E54" s="3">
         <v>150565000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>89115000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>59352000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>70786000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>66099000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>53050000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27513000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29198000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27008000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19521000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2257,8 +2385,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2273,224 +2402,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9939000</v>
+      </c>
+      <c r="E57" s="3">
         <v>8792000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4580000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5572000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5102000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4782000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4531000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9129000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8241000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9329000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3909000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12495000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8502000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3753000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5308000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6415000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>402000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2431000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4439000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>431000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1042000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>16000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12760000</v>
+      </c>
+      <c r="E59" s="3">
         <v>11367000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7252000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6359000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5124000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4597000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3932000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2861000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2225000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2139000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5479900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35194000</v>
+      </c>
+      <c r="E60" s="3">
         <v>28661000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15585000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17239000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16641000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9781000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10894000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11393000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6879000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6776000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5897000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>64189000</v>
+      </c>
+      <c r="E61" s="3">
         <v>77554000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>62975000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>35002000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>30953000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>36440000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>29240000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10538000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14292000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14630000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>31710000</v>
+      </c>
+      <c r="E62" s="3">
         <v>31253000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18727000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15557000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18095000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15242000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8971000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6870000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7070000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2239000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1660500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2524,9 +2672,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2560,9 +2711,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2596,45 +2750,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>131121000</v>
+      </c>
+      <c r="E66" s="3">
         <v>137489000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>97287000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>67798000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>65689000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>61463000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>49105000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>25771000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24706000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23645000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7589000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2649,8 +2809,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2684,9 +2845,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2720,9 +2884,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2756,9 +2923,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2792,45 +2962,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3127000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1055000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4717000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3368000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5459000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4378000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2248000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>535000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1567000</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2864,9 +3040,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2900,9 +3079,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2936,45 +3118,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15408000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13076000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-8172000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-8446000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5097000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4636000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3945000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1742000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4492000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3363000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11932000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3008,86 +3196,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11468000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4556000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7842000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5657000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5283000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5923000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5144000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1774000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4128000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5275000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3433100</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3102,44 +3299,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8521000</v>
+      </c>
+      <c r="E83" s="3">
         <v>6471000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2017000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1765000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1501000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1189000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>836000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>786000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>897000</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1272200</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3173,9 +3374,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3209,9 +3413,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3245,9 +3452,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3281,9 +3491,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3317,45 +3530,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22777000</v>
+      </c>
+      <c r="E89" s="3">
         <v>17588000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13324000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13427000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9960000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7041000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7535000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3549000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6267000</v>
-      </c>
-      <c r="L89" s="3">
-        <v>6247000</v>
       </c>
       <c r="M89" s="3">
         <v>6247000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>6247000</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3370,44 +3589,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-787000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-798000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-552000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-638000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-529000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-479000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-532000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-612000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-491000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-355500</v>
       </c>
       <c r="M91" s="3">
         <v>-355500</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>-355500</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3441,9 +3664,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3477,45 +3703,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2344000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-37557000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>596000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1006000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-274000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6074000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12936000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-926000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>879000</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>553900</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3530,44 +3762,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-9261000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-7716000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-6366000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-5580000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-4107000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3717000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3294000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2661000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2555000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3601,9 +3837,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3637,9 +3876,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3673,115 +3915,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19039000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11501000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>18708000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-14396000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5512000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3928000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5752000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3293000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3442000</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6783000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-39000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>29000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-338000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-577000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-10000</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1297000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-31475000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>32635000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2014000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4203000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3299000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>51000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1247000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3694000</v>
-      </c>
-      <c r="L102" s="3">
-        <v>17800</v>
       </c>
       <c r="M102" s="3">
         <v>17800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3">
+        <v>17800</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ABBV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ABBV_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>ABBV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,194 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>58054000</v>
+      </c>
+      <c r="E8" s="3">
         <v>56197000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>45804000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>33266000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>32753000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>28216000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>25638000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22859000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19960000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18790000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18380000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17444000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16527000</v>
+      </c>
+      <c r="E9" s="3">
         <v>17314000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15257000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7606000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7557000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7158000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5814000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4500000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4426000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4581000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4508000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4597400</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>41527000</v>
+      </c>
+      <c r="E10" s="3">
         <v>38883000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>30547000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25660000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25196000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>21058000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19824000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>18359000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15534000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14209000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13872000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12846600</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,47 +868,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6487000</v>
+      </c>
+      <c r="E12" s="3">
         <v>6982000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6181000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5407000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5229000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4982000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4366000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4101000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3297000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2840000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5178000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2502500</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -933,48 +949,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2006000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1549000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1704000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>505000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5524000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>327000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>239000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>334000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>352000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>353000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>492000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>878500</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1011,9 +1033,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1026,86 +1051,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>39937000</v>
+      </c>
+      <c r="E17" s="3">
         <v>38273000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>34441000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20283000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26370000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18624000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16254000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15322000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16549000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13126000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12563000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13823200</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>18117000</v>
+      </c>
+      <c r="E18" s="3">
         <v>17924000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11363000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12983000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6383000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9592000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9384000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7537000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3411000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5664000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5817000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3620700</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1121,203 +1153,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-2410000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2512000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5511000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2773000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>162000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-715000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-453000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-173000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-613000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-33000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>47800</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>24174000</v>
+      </c>
+      <c r="E21" s="3">
         <v>23933000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12323000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12227000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8310000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10378000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10120000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8200000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3584000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6528000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6979000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4940700</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>2230000</v>
+      </c>
+      <c r="E22" s="3">
         <v>2423000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2454000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1784000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1348000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1150000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1047000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>719000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>429000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>299000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>104000</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13477000</v>
+      </c>
+      <c r="E23" s="3">
         <v>12989000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3398000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8426000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5197000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7727000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7884000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6645000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2369000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5332000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5725000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3668500</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1632000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1440000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1224000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>544000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-576000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2018000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1931000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1501000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>595000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1204000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>450000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>235400</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1354,87 +1402,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11845000</v>
+      </c>
+      <c r="E26" s="3">
         <v>11549000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4622000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7882000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5773000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5709000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5953000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5144000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1774000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4128000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5275000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3433100</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11782000</v>
+      </c>
+      <c r="E27" s="3">
         <v>11468000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4556000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7842000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5743000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5683000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5923000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5144000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1774000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4128000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5275000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3433100</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1471,9 +1528,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1486,14 +1546,14 @@
       <c r="F29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="3">
         <v>-86000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-400000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>17</v>
@@ -1510,9 +1570,12 @@
       <c r="N29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1549,9 +1612,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1588,87 +1654,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2410000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2512000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5511000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2773000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-162000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>715000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>453000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>173000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>613000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>33000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-47800</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11782000</v>
+      </c>
+      <c r="E33" s="3">
         <v>11468000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4556000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7842000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5657000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5283000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5923000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5144000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1774000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4128000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5275000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3433100</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1705,92 +1780,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11782000</v>
+      </c>
+      <c r="E35" s="3">
         <v>11468000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4556000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7842000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5657000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5283000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5923000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5144000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1774000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4128000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5275000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3433100</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1806,8 +1890,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1823,359 +1908,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9201000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9746000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8449000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39924000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7289000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9303000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5100000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8399000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8348000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9595000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5901000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E42" s="3">
         <v>84000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>30000</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>772000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>486000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1323000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>26000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>300000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2075000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>626000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11254000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9977000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8822000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5428000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5384000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5088000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4758000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4730000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8026000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8657000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8596000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7795300</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3579000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3128000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3310000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1813000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1605000</v>
       </c>
       <c r="H44" s="3">
         <v>1605000</v>
       </c>
       <c r="I44" s="3">
+        <v>1605000</v>
+      </c>
+      <c r="J44" s="3">
         <v>1444000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1719000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1124000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1150000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1091000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>872000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4401000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4993000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3562000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2354000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1895000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4741000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3562000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1458000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2848000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2000000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1989000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2012000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28463000</v>
+      </c>
+      <c r="E46" s="3">
         <v>27928000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>24173000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>49519000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16945000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21223000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16187000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16314000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16081000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17848000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15354000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7354000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E47" s="3">
         <v>277000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>293000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>93000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1420000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2090000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1783000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>145000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>92000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>118000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>119000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>229000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5672000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5872000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6143000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3306000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2883000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2803000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2604000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2565000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9590000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9207000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8789000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2144000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>99595000</v>
+      </c>
+      <c r="E49" s="3">
         <v>108330000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>116000000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>34253000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>36896000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>43344000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>44313000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>32877000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7375000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8167000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8873000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9010200</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2212,9 +2325,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2251,48 +2367,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4834000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4122000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3956000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1944000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1208000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1326000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1212000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1149000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1480000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>767000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>835000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1703700</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2329,48 +2451,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>138805000</v>
+      </c>
+      <c r="E54" s="3">
         <v>146529000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>150565000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>89115000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>59352000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>70786000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>66099000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>53050000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27513000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29198000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27008000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19521000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2386,8 +2514,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2403,242 +2532,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8999000</v>
+      </c>
+      <c r="E57" s="3">
         <v>9939000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8792000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4580000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5572000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5102000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4782000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4531000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9129000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8241000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9329000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3909000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4136000</v>
+      </c>
+      <c r="E58" s="3">
         <v>12495000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8502000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3753000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5308000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6415000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>402000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2431000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4439000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>431000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1042000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>16000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16403000</v>
+      </c>
+      <c r="E59" s="3">
         <v>12760000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11367000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7252000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6359000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5124000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4597000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3932000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2861000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2225000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2139000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5479900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29538000</v>
+      </c>
+      <c r="E60" s="3">
         <v>35194000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>28661000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15585000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17239000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16641000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9781000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10894000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11393000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6879000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6776000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5897000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>59135000</v>
+      </c>
+      <c r="E61" s="3">
         <v>64189000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>77554000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>62975000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>35002000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>30953000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>36440000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>29240000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10538000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14292000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14630000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>32000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>32845000</v>
+      </c>
+      <c r="E62" s="3">
         <v>31710000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>31253000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18727000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15557000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18095000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15242000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8971000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6870000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7070000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2239000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1660500</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2675,9 +2823,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2714,9 +2865,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2753,48 +2907,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>121551000</v>
+      </c>
+      <c r="E66" s="3">
         <v>131121000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>137489000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>97287000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>67798000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>65689000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>61463000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>49105000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25771000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>24706000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23645000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7589000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2810,8 +2970,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2848,9 +3009,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2887,9 +3051,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2926,9 +3093,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2965,48 +3135,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4784000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3127000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1055000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4717000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3368000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5459000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4378000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2248000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>535000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1567000</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3043,9 +3219,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3082,9 +3261,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3121,48 +3303,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17254000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15408000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13076000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-8172000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-8446000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5097000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4636000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3945000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1742000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4492000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3363000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11932000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3199,92 +3387,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11782000</v>
+      </c>
+      <c r="E81" s="3">
         <v>11468000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4556000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7842000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5657000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5283000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5923000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5144000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1774000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4128000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5275000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3433100</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3300,47 +3497,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8467000</v>
+      </c>
+      <c r="E83" s="3">
         <v>8521000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6471000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2017000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1765000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1501000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1189000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>836000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>786000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>897000</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1272200</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3377,9 +3578,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3416,9 +3620,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3455,9 +3662,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3494,9 +3704,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3533,48 +3746,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>24943000</v>
+      </c>
+      <c r="E89" s="3">
         <v>22777000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17588000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13324000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>13427000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9960000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7041000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7535000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3549000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6267000</v>
-      </c>
-      <c r="M89" s="3">
-        <v>6247000</v>
       </c>
       <c r="N89" s="3">
         <v>6247000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>6247000</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3590,47 +3809,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-695000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-787000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-798000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-552000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-638000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-529000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-479000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-532000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-612000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-491000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-355500</v>
       </c>
       <c r="N91" s="3">
         <v>-355500</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>-355500</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3667,9 +3890,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3706,48 +3932,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-623000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2344000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-37557000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>596000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1006000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-274000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6074000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12936000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-926000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>879000</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>553900</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3763,47 +3995,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-10043000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-9261000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-7716000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-6366000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-5580000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-4107000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3717000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3294000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2661000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2555000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3840,9 +4076,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3879,9 +4118,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3918,124 +4160,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-24803000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19039000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11501000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>18708000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14396000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5512000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3928000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5752000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3293000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3442000</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6783000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-97000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>7000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-39000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>29000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-338000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-577000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10000</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-545000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1297000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-31475000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>32635000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2014000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4203000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3299000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>51000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1247000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3694000</v>
-      </c>
-      <c r="M102" s="3">
-        <v>17800</v>
       </c>
       <c r="N102" s="3">
         <v>17800</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3">
+        <v>17800</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
